--- a/Data/2020__FastSlowSort__viability_data.xlsx
+++ b/Data/2020__FastSlowSort__viability_data.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcarey/Develop/GrowthPredictionTMRE/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lcarey/Develop/ProliferationMitochondriaHeterogeneity/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECD6133-DF09-C14C-AC7A-7365190FFD1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADF1B27-EE09-244F-8BAC-35C63F79A1B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="24960" windowHeight="13740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="280" yWindow="460" windowWidth="34240" windowHeight="22660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ESC replicate 1" sheetId="2" r:id="rId1"/>
-    <sheet name="ESC replicate 2" sheetId="3" r:id="rId2"/>
-    <sheet name="Fibro replicate 1" sheetId="4" r:id="rId3"/>
-    <sheet name="Fibro replicate 2" sheetId="5" r:id="rId4"/>
+    <sheet name="Viability" sheetId="8" r:id="rId1"/>
+    <sheet name="ESC_Viability" sheetId="6" r:id="rId2"/>
+    <sheet name="FIB_Viability" sheetId="7" r:id="rId3"/>
+    <sheet name="ESC replicate 1" sheetId="2" r:id="rId4"/>
+    <sheet name="ESC replicate 2" sheetId="3" r:id="rId5"/>
+    <sheet name="Fibro replicate 1" sheetId="4" r:id="rId6"/>
+    <sheet name="Fibro replicate 2" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="19">
   <si>
     <t>Antimycin+Oligomycin</t>
   </si>
@@ -43,6 +46,12 @@
   </si>
   <si>
     <t>DMSO</t>
+  </si>
+  <si>
+    <t>Slow cells</t>
+  </si>
+  <si>
+    <t>Fast cells</t>
   </si>
   <si>
     <t>Day3</t>
@@ -60,16 +69,28 @@
     <t>O/N</t>
   </si>
   <si>
-    <t>Fast</t>
-  </si>
-  <si>
-    <t>Slow</t>
-  </si>
-  <si>
-    <t>CFSE</t>
+    <t>Speed</t>
   </si>
   <si>
     <t>Drug</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Rep</t>
+  </si>
+  <si>
+    <t>CellType</t>
+  </si>
+  <si>
+    <t>FIB</t>
+  </si>
+  <si>
+    <t>Ant+Olig</t>
+  </si>
+  <si>
+    <t>Day0</t>
   </si>
 </sst>
 </file>
@@ -266,28 +287,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -389,28 +410,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -512,28 +533,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -883,28 +904,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1006,28 +1027,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1129,28 +1150,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1500,28 +1521,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1623,28 +1644,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1746,28 +1767,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1869,28 +1890,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1992,28 +2013,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2363,28 +2384,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2486,28 +2507,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2609,28 +2630,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2732,28 +2753,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2855,28 +2876,28 @@
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Fast</c:v>
+                    <c:v>Fast cells</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Slow</c:v>
+                    <c:v>Slow cells</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -5361,16 +5382,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5404,16 +5425,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>488950</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5705,11 +5726,2249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DFE0649-378A-434C-89AE-1A68E6109A1B}">
+  <dimension ref="A1:G33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>78</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>93</v>
+      </c>
+      <c r="D18">
+        <v>91</v>
+      </c>
+      <c r="E18">
+        <v>92</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>97</v>
+      </c>
+      <c r="D19">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>95</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>97</v>
+      </c>
+      <c r="D20">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>88</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>88</v>
+      </c>
+      <c r="E21">
+        <v>79</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>97</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>93</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <v>91</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>76</v>
+      </c>
+      <c r="D25">
+        <v>54</v>
+      </c>
+      <c r="E25">
+        <v>82</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>96</v>
+      </c>
+      <c r="D26" s="4">
+        <v>96</v>
+      </c>
+      <c r="E26" s="4">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4">
+        <v>96</v>
+      </c>
+      <c r="D27" s="4">
+        <v>94</v>
+      </c>
+      <c r="E27" s="4">
+        <v>93</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <v>94</v>
+      </c>
+      <c r="D28" s="4">
+        <v>70</v>
+      </c>
+      <c r="E28" s="4">
+        <v>73</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4">
+        <v>85</v>
+      </c>
+      <c r="E29" s="4">
+        <v>79</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>95</v>
+      </c>
+      <c r="D30" s="4">
+        <v>97</v>
+      </c>
+      <c r="E30" s="4">
+        <v>97</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="4">
+        <v>98</v>
+      </c>
+      <c r="D31" s="4">
+        <v>100</v>
+      </c>
+      <c r="E31" s="4">
+        <v>92</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="4">
+        <v>96</v>
+      </c>
+      <c r="D32" s="4">
+        <v>97</v>
+      </c>
+      <c r="E32" s="4">
+        <v>97</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="4">
+        <v>97</v>
+      </c>
+      <c r="D33" s="4">
+        <v>96</v>
+      </c>
+      <c r="E33" s="4">
+        <v>85</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7449DB8A-4D63-124A-9837-CEB5B4777719}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10">
+        <v>79</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>74</v>
+      </c>
+      <c r="E11">
+        <v>64</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>55</v>
+      </c>
+      <c r="E12">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>49</v>
+      </c>
+      <c r="E13">
+        <v>52</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>55</v>
+      </c>
+      <c r="D14">
+        <v>74</v>
+      </c>
+      <c r="E14">
+        <v>78</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15">
+        <v>58</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>59</v>
+      </c>
+      <c r="D16">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>64</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>79</v>
+      </c>
+      <c r="D17">
+        <v>79</v>
+      </c>
+      <c r="E17">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A62443BD-32BA-AC4E-9F69-15A2DDF12AB7}">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>91</v>
+      </c>
+      <c r="E2">
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>96</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>97</v>
+      </c>
+      <c r="D3">
+        <v>94</v>
+      </c>
+      <c r="E3">
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>97</v>
+      </c>
+      <c r="G3">
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>97</v>
+      </c>
+      <c r="D4">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>88</v>
+      </c>
+      <c r="E5">
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>89</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>97</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>96</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+      <c r="E7">
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>89</v>
+      </c>
+      <c r="E8">
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>95</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>76</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>95</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>96</v>
+      </c>
+      <c r="D10" s="4">
+        <v>96</v>
+      </c>
+      <c r="E10" s="4">
+        <v>85</v>
+      </c>
+      <c r="F10" s="4">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4">
+        <v>96</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>96</v>
+      </c>
+      <c r="D11" s="4">
+        <v>94</v>
+      </c>
+      <c r="E11" s="4">
+        <v>93</v>
+      </c>
+      <c r="F11" s="4">
+        <v>92</v>
+      </c>
+      <c r="G11" s="4">
+        <v>96</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>94</v>
+      </c>
+      <c r="D12" s="4">
+        <v>70</v>
+      </c>
+      <c r="E12" s="4">
+        <v>73</v>
+      </c>
+      <c r="F12" s="4">
+        <v>89</v>
+      </c>
+      <c r="G12" s="4">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4">
+        <v>79</v>
+      </c>
+      <c r="F13" s="4">
+        <v>80</v>
+      </c>
+      <c r="G13" s="4">
+        <v>98</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>95</v>
+      </c>
+      <c r="D14" s="4">
+        <v>97</v>
+      </c>
+      <c r="E14" s="4">
+        <v>97</v>
+      </c>
+      <c r="F14" s="4">
+        <v>100</v>
+      </c>
+      <c r="G14" s="4">
+        <v>97</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="4">
+        <v>98</v>
+      </c>
+      <c r="D15" s="4">
+        <v>100</v>
+      </c>
+      <c r="E15" s="4">
+        <v>92</v>
+      </c>
+      <c r="F15" s="4">
+        <v>99</v>
+      </c>
+      <c r="G15" s="4">
+        <v>98</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>96</v>
+      </c>
+      <c r="D16" s="4">
+        <v>97</v>
+      </c>
+      <c r="E16" s="4">
+        <v>97</v>
+      </c>
+      <c r="F16" s="4">
+        <v>70</v>
+      </c>
+      <c r="G16" s="4">
+        <v>93</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>97</v>
+      </c>
+      <c r="D17" s="4">
+        <v>96</v>
+      </c>
+      <c r="E17" s="4">
+        <v>85</v>
+      </c>
+      <c r="F17" s="4">
+        <v>74</v>
+      </c>
+      <c r="G17" s="4">
+        <v>88</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>54</v>
+      </c>
+      <c r="D2">
+        <v>79</v>
+      </c>
+      <c r="E2">
+        <v>82</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4">
+        <v>54</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>44</v>
+      </c>
+      <c r="D5">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>61</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>53</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+      <c r="E7">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>71</v>
+      </c>
+      <c r="E8">
+        <v>63</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>51</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>79</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>56</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>57</v>
+      </c>
+      <c r="D5">
+        <v>49</v>
+      </c>
+      <c r="E5">
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>74</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>66</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="E7">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>59</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>79</v>
+      </c>
+      <c r="D9">
+        <v>79</v>
+      </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5725,150 +7984,257 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E2">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="F2">
+        <v>96</v>
+      </c>
+      <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E3">
-        <v>83</v>
+        <v>95</v>
+      </c>
+      <c r="F3">
+        <v>97</v>
+      </c>
+      <c r="G3">
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D4">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>54</v>
+        <v>88</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>94</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="E5">
-        <v>61</v>
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <v>89</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D6">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>69</v>
+        <v>91</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>96</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E7">
-        <v>57</v>
-      </c>
-      <c r="I7" s="3"/>
+        <v>93</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="E8">
-        <v>63</v>
+        <v>91</v>
+      </c>
+      <c r="F8">
+        <v>95</v>
+      </c>
+      <c r="G8">
+        <v>99</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>54</v>
       </c>
       <c r="E9">
-        <v>59</v>
+        <v>82</v>
+      </c>
+      <c r="F9">
+        <v>95</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -5918,6 +8284,54 @@
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5925,12 +8339,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I29"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection sqref="A1:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5946,150 +8360,257 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
-        <v>51</v>
-      </c>
-      <c r="D2">
-        <v>90</v>
-      </c>
-      <c r="E2">
-        <v>79</v>
+      <c r="C2" s="4">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4">
+        <v>96</v>
+      </c>
+      <c r="E2" s="4">
+        <v>85</v>
+      </c>
+      <c r="F2" s="4">
+        <v>95</v>
+      </c>
+      <c r="G2" s="4">
+        <v>96</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>74</v>
-      </c>
-      <c r="E3">
-        <v>64</v>
+      <c r="C3" s="4">
+        <v>96</v>
+      </c>
+      <c r="D3" s="4">
+        <v>94</v>
+      </c>
+      <c r="E3" s="4">
+        <v>93</v>
+      </c>
+      <c r="F3" s="4">
+        <v>92</v>
+      </c>
+      <c r="G3" s="4">
+        <v>96</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>56</v>
-      </c>
-      <c r="D4">
-        <v>55</v>
-      </c>
-      <c r="E4">
-        <v>53</v>
+      <c r="C4" s="4">
+        <v>94</v>
+      </c>
+      <c r="D4" s="4">
+        <v>70</v>
+      </c>
+      <c r="E4" s="4">
+        <v>73</v>
+      </c>
+      <c r="F4" s="4">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>57</v>
-      </c>
-      <c r="D5">
-        <v>49</v>
-      </c>
-      <c r="E5">
-        <v>52</v>
+      <c r="C5" s="4">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>85</v>
+      </c>
+      <c r="E5" s="4">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4">
+        <v>80</v>
+      </c>
+      <c r="G5" s="4">
+        <v>98</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>74</v>
-      </c>
-      <c r="E6">
-        <v>78</v>
+      <c r="C6" s="4">
+        <v>95</v>
+      </c>
+      <c r="D6" s="4">
+        <v>97</v>
+      </c>
+      <c r="E6" s="4">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4">
+        <v>100</v>
+      </c>
+      <c r="G6" s="4">
+        <v>97</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>66</v>
-      </c>
-      <c r="D7">
-        <v>72</v>
-      </c>
-      <c r="E7">
-        <v>58</v>
-      </c>
-      <c r="I7" s="3"/>
+      <c r="C7" s="4">
+        <v>98</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>92</v>
+      </c>
+      <c r="F7" s="4">
+        <v>99</v>
+      </c>
+      <c r="G7" s="4">
+        <v>98</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>59</v>
-      </c>
-      <c r="D8">
-        <v>59</v>
-      </c>
-      <c r="E8">
-        <v>64</v>
+      <c r="C8" s="4">
+        <v>96</v>
+      </c>
+      <c r="D8" s="4">
+        <v>97</v>
+      </c>
+      <c r="E8" s="4">
+        <v>97</v>
+      </c>
+      <c r="F8" s="4">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4">
+        <v>93</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>79</v>
-      </c>
-      <c r="D9">
-        <v>79</v>
-      </c>
-      <c r="E9">
-        <v>62</v>
+      <c r="C9" s="4">
+        <v>97</v>
+      </c>
+      <c r="D9" s="4">
+        <v>96</v>
+      </c>
+      <c r="E9" s="4">
+        <v>85</v>
+      </c>
+      <c r="F9" s="4">
+        <v>74</v>
+      </c>
+      <c r="G9" s="4">
+        <v>88</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -6105,602 +8626,6 @@
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>93</v>
-      </c>
-      <c r="D2">
-        <v>91</v>
-      </c>
-      <c r="E2">
-        <v>92</v>
-      </c>
-      <c r="F2">
-        <v>96</v>
-      </c>
-      <c r="G2">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>97</v>
-      </c>
-      <c r="D3">
-        <v>94</v>
-      </c>
-      <c r="E3">
-        <v>95</v>
-      </c>
-      <c r="F3">
-        <v>97</v>
-      </c>
-      <c r="G3">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>97</v>
-      </c>
-      <c r="D4">
-        <v>59</v>
-      </c>
-      <c r="E4">
-        <v>88</v>
-      </c>
-      <c r="F4">
-        <v>98</v>
-      </c>
-      <c r="G4">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>95</v>
-      </c>
-      <c r="D5">
-        <v>88</v>
-      </c>
-      <c r="E5">
-        <v>79</v>
-      </c>
-      <c r="F5">
-        <v>89</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>97</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="E6">
-        <v>91</v>
-      </c>
-      <c r="F6">
-        <v>98</v>
-      </c>
-      <c r="G6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>90</v>
-      </c>
-      <c r="D7">
-        <v>81</v>
-      </c>
-      <c r="E7">
-        <v>93</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>95</v>
-      </c>
-      <c r="D8">
-        <v>89</v>
-      </c>
-      <c r="E8">
-        <v>91</v>
-      </c>
-      <c r="F8">
-        <v>95</v>
-      </c>
-      <c r="G8">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>76</v>
-      </c>
-      <c r="D9">
-        <v>54</v>
-      </c>
-      <c r="E9">
-        <v>82</v>
-      </c>
-      <c r="F9">
-        <v>95</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>96</v>
-      </c>
-      <c r="D2" s="4">
-        <v>96</v>
-      </c>
-      <c r="E2" s="4">
-        <v>85</v>
-      </c>
-      <c r="F2" s="4">
-        <v>95</v>
-      </c>
-      <c r="G2" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>96</v>
-      </c>
-      <c r="D3" s="4">
-        <v>94</v>
-      </c>
-      <c r="E3" s="4">
-        <v>93</v>
-      </c>
-      <c r="F3" s="4">
-        <v>92</v>
-      </c>
-      <c r="G3" s="4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>94</v>
-      </c>
-      <c r="D4" s="4">
-        <v>70</v>
-      </c>
-      <c r="E4" s="4">
-        <v>73</v>
-      </c>
-      <c r="F4" s="4">
-        <v>89</v>
-      </c>
-      <c r="G4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>75</v>
-      </c>
-      <c r="D5" s="4">
-        <v>85</v>
-      </c>
-      <c r="E5" s="4">
-        <v>79</v>
-      </c>
-      <c r="F5" s="4">
-        <v>80</v>
-      </c>
-      <c r="G5" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4">
-        <v>95</v>
-      </c>
-      <c r="D6" s="4">
-        <v>97</v>
-      </c>
-      <c r="E6" s="4">
-        <v>97</v>
-      </c>
-      <c r="F6" s="4">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>98</v>
-      </c>
-      <c r="D7" s="4">
-        <v>100</v>
-      </c>
-      <c r="E7" s="4">
-        <v>92</v>
-      </c>
-      <c r="F7" s="4">
-        <v>99</v>
-      </c>
-      <c r="G7" s="4">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>96</v>
-      </c>
-      <c r="D8" s="4">
-        <v>97</v>
-      </c>
-      <c r="E8" s="4">
-        <v>97</v>
-      </c>
-      <c r="F8" s="4">
-        <v>70</v>
-      </c>
-      <c r="G8" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>97</v>
-      </c>
-      <c r="D9" s="4">
-        <v>96</v>
-      </c>
-      <c r="E9" s="4">
-        <v>85</v>
-      </c>
-      <c r="F9" s="4">
-        <v>74</v>
-      </c>
-      <c r="G9" s="4">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.2">
